--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12509\Desktop\wrh\新建文件夹 (2)\DormitoryAccessSystem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392F160-58BE-4CDE-8BB9-053D7E084A1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9242410-B93D-4DB3-8863-70462F77EF6E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="17595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="刷卡时间" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="27">
   <si>
     <t>院系</t>
     <rPh sb="0" eb="1">
@@ -210,25 +210,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>41288121@qq.com</t>
-  </si>
-  <si>
-    <t>41288121@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41288121@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宋老师</t>
     <rPh sb="0" eb="1">
       <t>song'lao'shi</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41288121@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -250,6 +235,10 @@
   </si>
   <si>
     <t>MG5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250925329@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -801,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2017</v>
@@ -817,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -865,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -879,7 +868,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -890,10 +879,10 @@
         <v>2016</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
         <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -904,10 +893,10 @@
         <v>2017</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" t="s">
         <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -918,19 +907,21 @@
         <v>2018</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="D3:D4" r:id="rId2" display="41288121@qq.com" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="D4" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{DA706B5B-2B33-40EE-B3AF-B91D2EE876F8}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{1BF71A51-24B5-4299-96CA-415F95209807}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{8F0B51EC-43CE-4D36-9C08-C09B8F69E007}"/>
+    <hyperlink ref="D4" r:id="rId4" xr:uid="{A06CB97D-F8BE-479E-8FD4-16ACA0F3D330}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{7FFBC1EE-6C5A-4AA7-B5D1-C94F554DB0DE}"/>
+    <hyperlink ref="D2" r:id="rId6" xr:uid="{798CF67B-4B88-45FC-B725-22FEA648B1BB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
